--- a/x_bio_weapon/Alternative EV Screen.xlsx
+++ b/x_bio_weapon/Alternative EV Screen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sudz4/Desktop/SPS_local/sps/x_bio_weapon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B86E25-22DA-FF41-B3D7-FBE57B367ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CE2BC4-BF55-0E40-9BD1-68E43BD1B700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10863,8 +10863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6266647-2D54-0847-B585-0C80AE93139D}">
   <dimension ref="A1:AA54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/x_bio_weapon/Alternative EV Screen.xlsx
+++ b/x_bio_weapon/Alternative EV Screen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sudz4/Desktop/SPS_local/sps/x_bio_weapon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CE2BC4-BF55-0E40-9BD1-68E43BD1B700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370A5C13-5C7D-A043-94A4-A81A7EAE5ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51220" yWindow="16280" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Live Bloomberg Model" sheetId="2" r:id="rId1"/>
